--- a/swaps/Clase 15 swaps/example.xlsx
+++ b/swaps/Clase 15 swaps/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\Desarrollo\MEF\Catedras\Economía Financiera\economia-financiera\swaps\Clase 15 swaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132980C8-60E6-463F-9732-2699E71590CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B89C05C-DC0B-45FF-8421-C063D1D2D3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{44B9DA55-9423-4F61-A421-FFF29B59D1F7}"/>
   </bookViews>
@@ -16,35 +16,63 @@
     <sheet name="P36 Example" sheetId="1" r:id="rId1"/>
     <sheet name="Example 2" sheetId="2" r:id="rId2"/>
     <sheet name="Example 2 Solver" sheetId="3" r:id="rId3"/>
+    <sheet name="Example 2 Solver (2)" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Example 2 Solver'!$C$3</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Example 2 Solver (2)'!$C$3</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Example 2 Solver'!$C$22</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Example 2 Solver (2)'!$C$22</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="29">
   <si>
     <t>Notional Principal</t>
   </si>
@@ -122,13 +150,50 @@
   <si>
     <t>Pay Fixed (Short)</t>
   </si>
+  <si>
+    <t>Tenor</t>
+  </si>
+  <si>
+    <t>Cupon</t>
+  </si>
+  <si>
+    <t>Coupon</t>
+  </si>
+  <si>
+    <t>Amortization</t>
+  </si>
+  <si>
+    <t>Par</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Discounted Factor</t>
+  </si>
+  <si>
+    <t>Zero 1 año</t>
+  </si>
+  <si>
+    <t>Zero 2 años</t>
+  </si>
+  <si>
+    <t>Zero 1,5 años</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -217,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -509,12 +574,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -524,7 +600,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -560,10 +635,24 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1023,6 +1112,231 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C5E844-D721-4F1D-AD28-7E3102EA7790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11264900" y="1250950"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-CL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117312B7-DCE9-43C5-8E23-A5B9DB9BB9B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10636250" y="1123950"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-CL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62DE8E5-3286-432F-B724-2963F65C308F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11277600" y="1247775"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-CL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CuadroTexto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{555D16B8-DD5B-4FF5-882A-A4CF7243AF21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10648950" y="1123950"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-CL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1359,54 +1673,54 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>200000000</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="12"/>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="11"/>
+      <c r="I2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="12"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>1.95E-2</v>
       </c>
       <c r="E4" s="5">
@@ -1427,10 +1741,10 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="5">
@@ -1523,7 +1837,6 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="C11" s="9"/>
       <c r="E11" s="5">
         <v>4</v>
       </c>
@@ -1557,7 +1870,7 @@
       <c r="E13" s="7">
         <v>5</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>2250000</v>
       </c>
@@ -1570,29 +1883,29 @@
     </row>
     <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="22"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <f>+J4-F4</f>
         <v>-300000</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="21"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <f>-C16</f>
         <v>300000</v>
       </c>
@@ -1626,54 +1939,54 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>10000000</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="12"/>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="11"/>
+      <c r="I2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="12"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <f>+C11</f>
         <v>4.2900000000000001E-2</v>
       </c>
@@ -1695,17 +2008,17 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F7" si="0">+$C$2*$C$3/2</f>
+        <f t="shared" ref="F5:F6" si="0">+$C$2*$C$3/2</f>
         <v>237500</v>
       </c>
       <c r="G5" s="6"/>
@@ -1747,52 +2060,52 @@
     </row>
     <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="28"/>
     </row>
     <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="12"/>
-      <c r="I10" s="11" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="11"/>
+      <c r="I10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="12"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>0.5</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="32">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1810,7 +2123,7 @@
         <f>+$C$2*$C$3/2</f>
         <v>237500</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="34">
         <f>+F12/((1+C11)^E12)</f>
         <v>232563.8884709547</v>
       </c>
@@ -1821,7 +2134,7 @@
         <f>+C2*C4/2+C2</f>
         <v>10214500</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="34">
         <f>+J12*((1+C4)^I12)</f>
         <v>10431300.258823201</v>
       </c>
@@ -1837,24 +2150,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13:F15" si="1">+$C$2*$C$3/2</f>
+        <f t="shared" ref="F13:F14" si="1">+$C$2*$C$3/2</f>
         <v>237500</v>
       </c>
-      <c r="G13" s="35">
-        <f t="shared" ref="G13:G16" si="2">+F13/((1+C12)^E13)</f>
+      <c r="G13" s="34">
+        <f t="shared" ref="G13:G15" si="2">+F13/((1+C12)^E13)</f>
         <v>228189.85395849348</v>
       </c>
       <c r="I13" s="5">
         <v>1</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="35"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="33">
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="E14" s="5">
@@ -1864,7 +2177,7 @@
         <f t="shared" si="1"/>
         <v>237500</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="34">
         <f t="shared" si="2"/>
         <v>223930.68315057069</v>
       </c>
@@ -1872,69 +2185,69 @@
         <v>1.5</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="35"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <v>2</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="36">
         <f>+$C$2*$C$3/2 + C2</f>
         <v>10237500</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="37">
         <f t="shared" si="2"/>
         <v>9479722.8104048781</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="35">
         <v>2</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="38"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40">
+      <c r="F16" s="38"/>
+      <c r="G16" s="39">
         <f>+SUM(G12:G15)</f>
         <v>10164407.235984897</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="42">
+      <c r="J16" s="38"/>
+      <c r="K16" s="41">
         <f>+SUM(K12:K15)</f>
         <v>10431300.258823201</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <f>++K16-G16</f>
         <v>266893.02283830382</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="21"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <f>-C20</f>
         <v>-266893.02283830382</v>
       </c>
@@ -1968,54 +2281,54 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>10000000</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="12"/>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="11"/>
+      <c r="I2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="12"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>6.1514298520184703E-2</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <f>+C11</f>
         <v>4.2900000000000001E-2</v>
       </c>
@@ -2037,17 +2350,17 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F7" si="0">+$C$2*$C$3/2</f>
+        <f t="shared" ref="F5:F6" si="0">+$C$2*$C$3/2</f>
         <v>307571.49260092352</v>
       </c>
       <c r="G5" s="6"/>
@@ -2089,52 +2402,52 @@
     </row>
     <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="28"/>
     </row>
     <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="12"/>
-      <c r="I10" s="11" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="11"/>
+      <c r="I10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="12"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>0.5</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="32">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2152,7 +2465,7 @@
         <f>+$C$2*$C$3/2</f>
         <v>307571.49260092352</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="34">
         <f>+F12/((1+C11)^E12)</f>
         <v>301179.04127194209</v>
       </c>
@@ -2163,7 +2476,7 @@
         <f>+C2*C4/2+C2</f>
         <v>10214500</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="34">
         <f>+J12*((1+C4)^I12)</f>
         <v>10431300.258823201</v>
       </c>
@@ -2179,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13:F15" si="1">+$C$2*$C$3/2</f>
+        <f t="shared" ref="F13:F14" si="1">+$C$2*$C$3/2</f>
         <v>307571.49260092352</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="34">
         <f t="shared" ref="G13:G15" si="2">+F13/((1+C12)^E13)</f>
         <v>295514.50096168672</v>
       </c>
@@ -2190,13 +2503,13 @@
         <v>1</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="35"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="33">
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="E14" s="5">
@@ -2206,7 +2519,7 @@
         <f t="shared" si="1"/>
         <v>307571.49260092352</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="34">
         <f t="shared" si="2"/>
         <v>289998.71349796001</v>
       </c>
@@ -2214,71 +2527,689 @@
         <v>1.5</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="35"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <v>2</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="36">
         <f>+$C$2*$C$3/2 + C2</f>
         <v>10307571.492600923</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="37">
         <f t="shared" si="2"/>
         <v>9544607.628648404</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="35">
         <v>2</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="38"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40">
+      <c r="F16" s="38"/>
+      <c r="G16" s="39">
         <f>+SUM(G12:G15)</f>
         <v>10431299.884379992</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="42">
+      <c r="J16" s="38"/>
+      <c r="K16" s="41">
         <f>+SUM(K12:K15)</f>
         <v>10431300.258823201</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <f>+K16-G16</f>
         <v>0.37444320879876614</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="21"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <f>-C20</f>
         <v>-0.37444320879876614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43519263-04F9-4554-9534-5031EE7C5482}">
+  <dimension ref="B1:AA22"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.7265625" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.08984375" customWidth="1"/>
+    <col min="24" max="24" width="12.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="11"/>
+      <c r="I2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>6.1514298520184703E-2</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="47">
+        <f>N5/2*100</f>
+        <v>2.04</v>
+      </c>
+      <c r="V3" s="48">
+        <f>+U3+100</f>
+        <v>102.04</v>
+      </c>
+      <c r="X3" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="47">
+        <f>N6/2*100</f>
+        <v>2</v>
+      </c>
+      <c r="AA3" s="48">
+        <f>+Z3+100</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16">
+        <f>+C11</f>
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1">
+        <f>+$C$2*$C$3/2</f>
+        <v>307571.49260092352</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="I4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="1">
+        <f>+C2*C4/2</f>
+        <v>214500</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="M4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="43">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="O4" s="43">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="P4" s="43">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="Q4" s="43">
+        <f>1/(1+O4)^M4</f>
+        <v>0.97921637250928295</v>
+      </c>
+      <c r="S4">
+        <f>+U3/((1+N4)^0.5)</f>
+        <v>1.9976013999189373</v>
+      </c>
+      <c r="X4">
+        <f>+S4</f>
+        <v>1.9976013999189373</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F6" si="0">+$C$2*$C$3/2</f>
+        <v>307571.49260092352</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="6"/>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="43">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="O5" s="43">
+        <f>+S7</f>
+        <v>4.1199005918163278E-2</v>
+      </c>
+      <c r="P5" s="43">
+        <f>+(((1+O5)^M5 )/ ((1+O4)^M4))^(1/M4) -1</f>
+        <v>3.9500786197115501E-2</v>
+      </c>
+      <c r="Q5" s="43">
+        <f>1/(1+O5)^M5</f>
+        <v>0.96043118973031227</v>
+      </c>
+      <c r="S5" s="47">
+        <f>100-S4</f>
+        <v>98.002398600081065</v>
+      </c>
+      <c r="T5" s="46"/>
+      <c r="X5" s="47">
+        <f>+Z3/(1+O5)</f>
+        <v>1.9208623794606245</v>
+      </c>
+      <c r="Y5" s="46"/>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E6" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>307571.49260092352</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="I6" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="6"/>
+      <c r="M6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="N6" s="43">
+        <v>0.04</v>
+      </c>
+      <c r="O6" s="43">
+        <f>+X7</f>
+        <v>4.0655112922481917E-2</v>
+      </c>
+      <c r="P6" s="43">
+        <f>+(((1+O6)^M6 )/ ((1+O5)^M5))^(1/(M4)) -1</f>
+        <v>3.9568179125790026E-2</v>
+      </c>
+      <c r="Q6" s="43">
+        <f>1/(1+O6)^M6</f>
+        <v>0.94197584530020062</v>
+      </c>
+      <c r="S6" s="49">
+        <f>+V3/S5</f>
+        <v>1.0411990059181633</v>
+      </c>
+      <c r="X6" s="49">
+        <f>100 -X4-X5</f>
+        <v>96.081536220620436</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <f>+$C$2*$C$3/2 +C2</f>
+        <v>10307571.492600923</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="6"/>
+      <c r="M7" s="2">
+        <v>2</v>
+      </c>
+      <c r="N7" s="43">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="O7" s="51">
+        <f>+X15</f>
+        <v>4.0179256253012108E-2</v>
+      </c>
+      <c r="P7" s="43">
+        <f>+(((1+O7)^M7 )/ ((1+O6)^M6))^(1/(M4)) -1</f>
+        <v>3.8752991406396431E-2</v>
+      </c>
+      <c r="Q7" s="43">
+        <f>1/(1+O7)^M7</f>
+        <v>0.92423757908819193</v>
+      </c>
+      <c r="S7" s="50">
+        <f>+S6-1</f>
+        <v>4.1199005918163278E-2</v>
+      </c>
+      <c r="U7" s="46"/>
+      <c r="X7" s="45">
+        <f>+(AA3/X6)^(1/M6) -1</f>
+        <v>4.0655112922481917E-2</v>
+      </c>
+      <c r="Z7" s="46"/>
+    </row>
+    <row r="8" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="U9" s="49"/>
+    </row>
+    <row r="10" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="11"/>
+      <c r="I10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="11"/>
+      <c r="X10" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y10" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z10" s="47">
+        <f>N7/2*100</f>
+        <v>1.96</v>
+      </c>
+      <c r="AA10" s="48">
+        <f>+Z10+100</f>
+        <v>101.96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B11" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="32">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="49"/>
+      <c r="X11">
+        <f>+X4</f>
+        <v>1.9976013999189373</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="1">
+        <f>+$C$2*$C$3/2</f>
+        <v>307571.49260092352</v>
+      </c>
+      <c r="G12" s="34">
+        <f>+F12/((1+C11)^E12)</f>
+        <v>301179.04127194209</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="1">
+        <f>+C2*C4/2+C2</f>
+        <v>10214500</v>
+      </c>
+      <c r="K12" s="34">
+        <f>+J12/((1+C4)^I12)</f>
+        <v>10002205.63699607</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="52">
+        <f>+$C$2*P4</f>
+        <v>429000</v>
+      </c>
+      <c r="P12" s="53">
+        <f>+N12+O12</f>
+        <v>429000</v>
+      </c>
+      <c r="Q12" s="52">
+        <f>+P12*Q4</f>
+        <v>420083.82380648237</v>
+      </c>
+      <c r="X12" s="47">
+        <f>+X5</f>
+        <v>1.9208623794606245</v>
+      </c>
+      <c r="Y12" s="46"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B13" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ref="F13:F14" si="1">+$C$2*$C$3/2</f>
+        <v>307571.49260092352</v>
+      </c>
+      <c r="G13" s="34">
+        <f t="shared" ref="G13:G15" si="2">+F13/((1+C12)^E13)</f>
+        <v>295514.50096168672</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="34"/>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="52">
+        <f t="shared" ref="N13:N15" si="3">+$C$2*P5</f>
+        <v>395007.86197115498</v>
+      </c>
+      <c r="P13" s="53">
+        <f t="shared" ref="P13:P15" si="4">+N13+O13</f>
+        <v>395007.86197115498</v>
+      </c>
+      <c r="Q13" s="52">
+        <f t="shared" ref="Q13:Q15" si="5">+P13*Q5</f>
+        <v>379377.87082578335</v>
+      </c>
+      <c r="X13" s="49">
+        <f>Z10/(1+O6)^M6</f>
+        <v>1.8462726567883931</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="33">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>307571.49260092352</v>
+      </c>
+      <c r="G14" s="34">
+        <f t="shared" si="2"/>
+        <v>289998.71349796001</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="34"/>
+      <c r="M14" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="N14" s="52">
+        <f t="shared" si="3"/>
+        <v>395681.79125790024</v>
+      </c>
+      <c r="P14" s="53">
+        <f t="shared" si="4"/>
+        <v>395681.79125790024</v>
+      </c>
+      <c r="Q14" s="52">
+        <f t="shared" si="5"/>
+        <v>372722.68979005812</v>
+      </c>
+      <c r="X14" s="47">
+        <f>100-X11-X12-X13</f>
+        <v>94.235263563832049</v>
+      </c>
+      <c r="Z14" s="46"/>
+    </row>
+    <row r="15" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="35">
+        <v>2</v>
+      </c>
+      <c r="F15" s="36">
+        <f>+$C$2*$C$3/2 + C2</f>
+        <v>10307571.492600923</v>
+      </c>
+      <c r="G15" s="37">
+        <f t="shared" si="2"/>
+        <v>9544607.628648404</v>
+      </c>
+      <c r="I15" s="35">
+        <v>2</v>
+      </c>
+      <c r="J15" s="40"/>
+      <c r="K15" s="37"/>
+      <c r="M15" s="2">
+        <v>2</v>
+      </c>
+      <c r="N15" s="52">
+        <f>+$C$2*P7</f>
+        <v>387529.91406396433</v>
+      </c>
+      <c r="O15" s="53">
+        <f>+C2</f>
+        <v>10000000</v>
+      </c>
+      <c r="P15" s="53">
+        <f t="shared" si="4"/>
+        <v>10387529.914063964</v>
+      </c>
+      <c r="Q15" s="52">
+        <f>+P15*Q7</f>
+        <v>9600545.5004806519</v>
+      </c>
+      <c r="X15" s="46">
+        <f>+(AA10/X14)^(1/M7) - 1</f>
+        <v>4.0179256253012108E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39">
+        <f>+SUM(G12:G15)</f>
+        <v>10431299.884379992</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="41">
+        <f>+SUM(K12:K15)</f>
+        <v>10002205.63699607</v>
+      </c>
+      <c r="Q16" s="53">
+        <f>+SUM(Q12:Q15)</f>
+        <v>10772729.884902976</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="12">
+        <f>+K16-G16</f>
+        <v>-429094.24738392234</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="20"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="14">
+        <f>-C20</f>
+        <v>429094.24738392234</v>
       </c>
     </row>
   </sheetData>
